--- a/docs/attack-excel-files/v18.1/enterprise-attack/enterprise-attack-v18.1-campaigns.xlsx
+++ b/docs/attack-excel-files/v18.1/enterprise-attack/enterprise-attack-v18.1-campaigns.xlsx
@@ -1497,16 +1497,16 @@
     <t>Wai Linn Oo @ Kernellix</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: Ukraine15 - EISAC - 201603),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2017),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Dragos-Sandworm-Ukraine-2022)</t>
-  </si>
-  <si>
-    <t>(Citation: Mandiant 3cx UNC4736 2023),(Citation: Volexity 3CX Supply Chain Compromise AppleJeus IconicStealer March 2023),(Citation: Daveshell sRDI GitHub shell code loader),(Citation: 3cx official statement 2023),(Citation: Mandiant 3cx UNC4736 2023),(Citation: Unit42 3cx supply chain 2023),(Citation: GitHub SigFlip opensource tool),(Citation: Trend Micro 3CX AppleJeus ICONICSTEALER March 2023),(Citation: Mandiant 3cx UNC4736 2023)</t>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: Ukraine15 - EISAC - 201603),(Citation: Booz Allen Hamilton),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Dragos Crashoverride 2017),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Dragos-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022)</t>
+  </si>
+  <si>
+    <t>(Citation: Mandiant 3cx UNC4736 2023),(Citation: Mandiant 3cx UNC4736 2023),(Citation: Unit42 3cx supply chain 2023),(Citation: Volexity 3CX Supply Chain Compromise AppleJeus IconicStealer March 2023),(Citation: Trend Micro 3CX AppleJeus ICONICSTEALER March 2023),(Citation: GitHub SigFlip opensource tool),(Citation: Daveshell sRDI GitHub shell code loader),(Citation: 3cx official statement 2023),(Citation: Mandiant 3cx UNC4736 2023)</t>
   </si>
   <si>
     <t>(Citation: Nearest Neighbor Volexity),(Citation: Nearest Neighbor Volexity),(Citation: Nearest Neighbor Volexity)</t>
@@ -1515,7 +1515,7 @@
     <t>(Citation: Google Cloud APT41 2024),(Citation: Google Cloud APT41 2024),(Citation: Google Cloud APT41 2024)</t>
   </si>
   <si>
-    <t>(Citation: CCCS ArcaneDoor 2024),(Citation: Cisco ArcaneDoor 2024),(Citation: CCCS ArcaneDoor 2024),(Citation: Cisco ArcaneDoor 2024),</t>
+    <t>(Citation: Cisco ArcaneDoor 2024),(Citation: CCCS ArcaneDoor 2024),(Citation: Cisco ArcaneDoor 2024),(Citation: CCCS ArcaneDoor 2024),</t>
   </si>
   <si>
     <t>(Citation: Mandiant UNC3890 Aug 2022),(Citation: Mandiant UNC3890 Aug 2022),</t>
@@ -1533,7 +1533,7 @@
     <t>(Citation: Cisco Talos Avos Jun 2022),(Citation: Costa AvosLocker May 2022),(Citation: Cisco Talos Avos Jun 2022),(Citation: Costa AvosLocker May 2022),</t>
   </si>
   <si>
-    <t>(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),</t>
+    <t>(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),</t>
   </si>
   <si>
     <t>(Citation: Mandiant Suspected Turla Campaign February 2023),(Citation: Mandiant Suspected Turla Campaign February 2023),</t>
@@ -1551,7 +1551,7 @@
     <t>(Citation: BlackBerry CostaRicto November 2020),(Citation: BlackBerry CostaRicto November 2020),</t>
   </si>
   <si>
-    <t>(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge January 2024),</t>
+    <t>(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),</t>
   </si>
   <si>
     <t>(Citation: ORB Mandiant),(Citation: ORB Mandiant),</t>
@@ -1566,10 +1566,10 @@
     <t>(Citation: Bitdefender FunnyDream Campaign November 2020),(Citation: Bitdefender FunnyDream Campaign November 2020),</t>
   </si>
   <si>
-    <t>(Citation: CISA Iran Albanian Attacks September 2022),(Citation: Microsoft Albanian Government Attacks September 2022),(Citation: Mandiant ROADSWEEP August 2022),(Citation: Mandiant ROADSWEEP August 2022),(Citation: Microsoft Albanian Government Attacks September 2022),(Citation: CISA Iran Albanian Attacks September 2022),(Citation: Microsoft Albanian Government Attacks September 2022)</t>
-  </si>
-  <si>
-    <t>(Citation: RecordedFuture RedEcho 2022),(Citation: Dragos YIR 2021),(Citation: RecordedFuture RedEcho 2022),(Citation: RecordedFuture RedEcho 2021),(Citation: Dragos YIR 2021),</t>
+    <t>(Citation: CISA Iran Albanian Attacks September 2022),(Citation: Microsoft Albanian Government Attacks September 2022),(Citation: Mandiant ROADSWEEP August 2022),(Citation: CISA Iran Albanian Attacks September 2022),(Citation: Microsoft Albanian Government Attacks September 2022),(Citation: Mandiant ROADSWEEP August 2022),(Citation: Microsoft Albanian Government Attacks September 2022)</t>
+  </si>
+  <si>
+    <t>(Citation: RecordedFuture RedEcho 2022),(Citation: Dragos YIR 2021),(Citation: RecordedFuture RedEcho 2021),(Citation: RecordedFuture RedEcho 2022),(Citation: Dragos YIR 2021),</t>
   </si>
   <si>
     <t>(Citation: Lumen J-Magic JAN 2025),(Citation: Lumen J-Magic JAN 2025),</t>
@@ -1590,7 +1590,7 @@
     <t>(Citation: Cybereason OperationCuckooBees May 2022),(Citation: Cybereason OperationCuckooBees May 2022),</t>
   </si>
   <si>
-    <t>(Citation: McAfee Lazarus Jul 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: ESET Lazarus Jun 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: The Hacker News Lazarus Aug 2022),(Citation: McAfee Lazarus Nov 2020),(Citation: ESET Lazarus Jun 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020)</t>
+    <t>(Citation: McAfee Lazarus Jul 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: ESET Lazarus Jun 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: The Hacker News Lazarus Aug 2022),(Citation: McAfee Lazarus Jul 2020),(Citation: ESET Lazarus Jun 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020)</t>
   </si>
   <si>
     <t>(Citation: Cylance Dust Storm),(Citation: Cylance Dust Storm),</t>
@@ -1602,10 +1602,10 @@
     <t>(Citation: McAfee Honeybee),(Citation: McAfee Honeybee),</t>
   </si>
   <si>
-    <t>(Citation: Volexity UPSTYLE 2024),(Citation: Palo Alto MidnightEclipse APR 2024),(Citation: Volexity UPSTYLE 2024),(Citation: Palo Alto MidnightEclipse APR 2024),</t>
-  </si>
-  <si>
-    <t>(Citation: McAfee Sharpshooter December 2018),(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: McAfee Sharpshooter December 2018),(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: Threatpost New Op Sharpshooter Data March 2019),</t>
+    <t>(Citation: Palo Alto MidnightEclipse APR 2024),(Citation: Volexity UPSTYLE 2024),(Citation: Palo Alto MidnightEclipse APR 2024),(Citation: Volexity UPSTYLE 2024),</t>
+  </si>
+  <si>
+    <t>(Citation: McAfee Sharpshooter December 2018),(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: Threatpost New Op Sharpshooter Data March 2019),(Citation: McAfee Sharpshooter December 2018),(Citation: Bleeping Computer Op Sharpshooter March 2019),</t>
   </si>
   <si>
     <t>(Citation: ESET Operation Spalax Jan 2021),(Citation: ESET Operation Spalax Jan 2021),</t>
@@ -1614,34 +1614,34 @@
     <t>(Citation: FoxIT Wocao December 2019),(Citation: FoxIT Wocao December 2019),</t>
   </si>
   <si>
-    <t>(Citation: Zscaler Pikabot 2024),(Citation: Elastic Pikabot 2024),(Citation: Elastic Pikabot 2024),</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Storm-0940),(Citation: Sekoia 7777 Botnet JUL 2024),(Citation: Bitsight 7777 Botnet),(Citation: Microsoft Storm-0940),(Citation: TP-Link Quad 7 AUG 2025),(Citation: Medium 777-Botnet),</t>
+    <t>(Citation: Elastic Pikabot 2024),(Citation: Zscaler Pikabot 2024),(Citation: Elastic Pikabot 2024),</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Storm-0940),(Citation: Microsoft Storm-0940),(Citation: TP-Link Quad 7 AUG 2025),(Citation: Sekoia 7777 Botnet JUL 2024),(Citation: Bitsight 7777 Botnet),(Citation: Medium 777-Botnet),</t>
   </si>
   <si>
     <t>(Citation: Recorded Future RedDelta 2025),(Citation: Recorded Future RedDelta 2025),(Citation: Recorded Future RedDelta 2025)</t>
   </si>
   <si>
-    <t>(Citation: Mandiant UNC3886 Juniper Routers MAR 2025),(Citation: Mandiant UNC3886 Juniper Routers MAR 2025),(Citation: Censys RedPenguin MAR 2025),(Citation: Juniper RedPenguin MAR 2025),(Citation: Mandiant UNC3886 Juniper Routers MAR 2025)</t>
-  </si>
-  <si>
-    <t>,(Citation: NSA APT5 Citrix Threat Hunting December 2022),(Citation: ORB Mandiant),(Citation: ORB Mandiant)</t>
-  </si>
-  <si>
-    <t>(Citation: Google Salesforce JUN 2025),(Citation: FBI Salesforce Data Theft SEP 2025),(Citation: Google Salesforce JUN 2025),</t>
+    <t>(Citation: Mandiant UNC3886 Juniper Routers MAR 2025),(Citation: Censys RedPenguin MAR 2025),(Citation: Mandiant UNC3886 Juniper Routers MAR 2025),(Citation: Juniper RedPenguin MAR 2025),(Citation: Mandiant UNC3886 Juniper Routers MAR 2025)</t>
+  </si>
+  <si>
+    <t>,(Citation: ORB Mandiant),(Citation: NSA APT5 Citrix Threat Hunting December 2022),(Citation: ORB Mandiant)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Salesforce JUN 2025),(Citation: Google Salesforce JUN 2025),(Citation: FBI Salesforce Data Theft SEP 2025),</t>
   </si>
   <si>
     <t>,(Citation: Oligo ShadowRay Campaign MAR 2024),</t>
   </si>
   <si>
-    <t>(Citation: Microsoft SharePoint Exploit JUL 2025),(Citation: Trend Micro SharePoint Attacks JUL 2025),(Citation: SentinelOne ToolShell JUL 2025),(Citation: ESET ToolShell JUL 2025),(Citation: Eye Research ToolShell JUL 2025),(Citation: Palo Alto SharePoint Vulnerabilities JUL 2025),(Citation: Microsoft SharePoint Exploit JUL 2025),</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft 365 Defender Solorigate),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: FireEye SUNBURST Additional Details Dec 2020),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Symantec Sunburst Sending Data January 2021),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: CrowdStrike StellarParticle January 2022),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: CheckPoint Sunburst &amp; Teardrop December 2020),(Citation: Symantec RAINDROP January 2021),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: Secureworks IRON RITUAL Profile),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: FireEye SUNSHUTTLE Mar 2021),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Microsoft - Customer Guidance on Recent Nation-State Cyber Attacks),(Citation: Microsoft Internal Solorigate Investigation Blog),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: CrowdStrike StellarParticle January 2022),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: Volexity SolarWinds),(Citation: Symantec RAINDROP January 2021),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: MSTIC Nobelium Oct 2021),(Citation: Mandiant UNC2452 APT29 April 2022),(Citation: NSA Joint Advisory SVR SolarWinds April 2021),(Citation: UK NSCS Russia SolarWinds April 2021)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: Triton-EENews-2017),(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018)</t>
+    <t>(Citation: Microsoft SharePoint Exploit JUL 2025),(Citation: Palo Alto SharePoint Vulnerabilities JUL 2025),(Citation: Eye Research ToolShell JUL 2025),(Citation: Microsoft SharePoint Exploit JUL 2025),(Citation: SentinelOne ToolShell JUL 2025),(Citation: Trend Micro SharePoint Attacks JUL 2025),(Citation: ESET ToolShell JUL 2025),</t>
+  </si>
+  <si>
+    <t>(Citation: Symantec Sunburst Sending Data January 2021),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: CrowdStrike StellarParticle January 2022),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: FireEye SUNBURST Additional Details Dec 2020),(Citation: Symantec RAINDROP January 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: CheckPoint Sunburst &amp; Teardrop December 2020),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: Microsoft - Customer Guidance on Recent Nation-State Cyber Attacks),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: FireEye SUNSHUTTLE Mar 2021),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Microsoft Internal Solorigate Investigation Blog),(Citation: MSTIC Nobelium Oct 2021),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Volexity SolarWinds),(Citation: Microsoft 365 Defender Solorigate),(Citation: Symantec RAINDROP January 2021),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: Secureworks IRON RITUAL Profile),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: UK NSCS Russia SolarWinds April 2021),(Citation: Mandiant UNC2452 APT29 April 2022),(Citation: NSA Joint Advisory SVR SolarWinds April 2021)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye TRITON 2018),(Citation: Triton-EENews-2017),(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018)</t>
   </si>
   <si>
     <t>(Citation: Lumen Versa 2024),(Citation: Lumen Versa 2024),(Citation: Lumen Versa 2024)</t>

--- a/docs/attack-excel-files/v18.1/enterprise-attack/enterprise-attack-v18.1-campaigns.xlsx
+++ b/docs/attack-excel-files/v18.1/enterprise-attack/enterprise-attack-v18.1-campaigns.xlsx
@@ -1497,16 +1497,16 @@
     <t>Wai Linn Oo @ Kernellix</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: Ukraine15 - EISAC - 201603),(Citation: Booz Allen Hamilton),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Dragos Crashoverride 2017),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Dragos-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022)</t>
-  </si>
-  <si>
-    <t>(Citation: Mandiant 3cx UNC4736 2023),(Citation: Mandiant 3cx UNC4736 2023),(Citation: Unit42 3cx supply chain 2023),(Citation: Volexity 3CX Supply Chain Compromise AppleJeus IconicStealer March 2023),(Citation: Trend Micro 3CX AppleJeus ICONICSTEALER March 2023),(Citation: GitHub SigFlip opensource tool),(Citation: Daveshell sRDI GitHub shell code loader),(Citation: 3cx official statement 2023),(Citation: Mandiant 3cx UNC4736 2023)</t>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Dragos Crashoverride 2017),(Citation: ESET Industroyer),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Dragos-Sandworm-Ukraine-2022)</t>
+  </si>
+  <si>
+    <t>(Citation: Mandiant 3cx UNC4736 2023),(Citation: Volexity 3CX Supply Chain Compromise AppleJeus IconicStealer March 2023),(Citation: Mandiant 3cx UNC4736 2023),(Citation: 3cx official statement 2023),(Citation: Unit42 3cx supply chain 2023),(Citation: Trend Micro 3CX AppleJeus ICONICSTEALER March 2023),(Citation: Daveshell sRDI GitHub shell code loader),(Citation: GitHub SigFlip opensource tool),(Citation: Mandiant 3cx UNC4736 2023)</t>
   </si>
   <si>
     <t>(Citation: Nearest Neighbor Volexity),(Citation: Nearest Neighbor Volexity),(Citation: Nearest Neighbor Volexity)</t>
@@ -1533,7 +1533,7 @@
     <t>(Citation: Cisco Talos Avos Jun 2022),(Citation: Costa AvosLocker May 2022),(Citation: Cisco Talos Avos Jun 2022),(Citation: Costa AvosLocker May 2022),</t>
   </si>
   <si>
-    <t>(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),</t>
+    <t>(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),</t>
   </si>
   <si>
     <t>(Citation: Mandiant Suspected Turla Campaign February 2023),(Citation: Mandiant Suspected Turla Campaign February 2023),</t>
@@ -1551,7 +1551,7 @@
     <t>(Citation: BlackBerry CostaRicto November 2020),(Citation: BlackBerry CostaRicto November 2020),</t>
   </si>
   <si>
-    <t>(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),</t>
+    <t>(Citation: Mandiant Cutting Edge January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),</t>
   </si>
   <si>
     <t>(Citation: ORB Mandiant),(Citation: ORB Mandiant),</t>
@@ -1566,7 +1566,7 @@
     <t>(Citation: Bitdefender FunnyDream Campaign November 2020),(Citation: Bitdefender FunnyDream Campaign November 2020),</t>
   </si>
   <si>
-    <t>(Citation: CISA Iran Albanian Attacks September 2022),(Citation: Microsoft Albanian Government Attacks September 2022),(Citation: Mandiant ROADSWEEP August 2022),(Citation: CISA Iran Albanian Attacks September 2022),(Citation: Microsoft Albanian Government Attacks September 2022),(Citation: Mandiant ROADSWEEP August 2022),(Citation: Microsoft Albanian Government Attacks September 2022)</t>
+    <t>(Citation: Mandiant ROADSWEEP August 2022),(Citation: CISA Iran Albanian Attacks September 2022),(Citation: Microsoft Albanian Government Attacks September 2022),(Citation: CISA Iran Albanian Attacks September 2022),(Citation: Mandiant ROADSWEEP August 2022),(Citation: Microsoft Albanian Government Attacks September 2022),(Citation: Microsoft Albanian Government Attacks September 2022)</t>
   </si>
   <si>
     <t>(Citation: RecordedFuture RedEcho 2022),(Citation: Dragos YIR 2021),(Citation: RecordedFuture RedEcho 2021),(Citation: RecordedFuture RedEcho 2022),(Citation: Dragos YIR 2021),</t>
@@ -1590,7 +1590,7 @@
     <t>(Citation: Cybereason OperationCuckooBees May 2022),(Citation: Cybereason OperationCuckooBees May 2022),</t>
   </si>
   <si>
-    <t>(Citation: McAfee Lazarus Jul 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: ESET Lazarus Jun 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: The Hacker News Lazarus Aug 2022),(Citation: McAfee Lazarus Jul 2020),(Citation: ESET Lazarus Jun 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020)</t>
+    <t>(Citation: McAfee Lazarus Jul 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: The Hacker News Lazarus Aug 2022),(Citation: McAfee Lazarus Jul 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: ESET Lazarus Jun 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ESET Lazarus Jun 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020)</t>
   </si>
   <si>
     <t>(Citation: Cylance Dust Storm),(Citation: Cylance Dust Storm),</t>
@@ -1602,10 +1602,10 @@
     <t>(Citation: McAfee Honeybee),(Citation: McAfee Honeybee),</t>
   </si>
   <si>
-    <t>(Citation: Palo Alto MidnightEclipse APR 2024),(Citation: Volexity UPSTYLE 2024),(Citation: Palo Alto MidnightEclipse APR 2024),(Citation: Volexity UPSTYLE 2024),</t>
-  </si>
-  <si>
-    <t>(Citation: McAfee Sharpshooter December 2018),(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: Threatpost New Op Sharpshooter Data March 2019),(Citation: McAfee Sharpshooter December 2018),(Citation: Bleeping Computer Op Sharpshooter March 2019),</t>
+    <t>(Citation: Volexity UPSTYLE 2024),(Citation: Palo Alto MidnightEclipse APR 2024),(Citation: Volexity UPSTYLE 2024),(Citation: Palo Alto MidnightEclipse APR 2024),</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: McAfee Sharpshooter December 2018),(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: McAfee Sharpshooter December 2018),(Citation: Threatpost New Op Sharpshooter Data March 2019),</t>
   </si>
   <si>
     <t>(Citation: ESET Operation Spalax Jan 2021),(Citation: ESET Operation Spalax Jan 2021),</t>
@@ -1617,16 +1617,16 @@
     <t>(Citation: Elastic Pikabot 2024),(Citation: Zscaler Pikabot 2024),(Citation: Elastic Pikabot 2024),</t>
   </si>
   <si>
-    <t>(Citation: Microsoft Storm-0940),(Citation: Microsoft Storm-0940),(Citation: TP-Link Quad 7 AUG 2025),(Citation: Sekoia 7777 Botnet JUL 2024),(Citation: Bitsight 7777 Botnet),(Citation: Medium 777-Botnet),</t>
+    <t>(Citation: Microsoft Storm-0940),(Citation: Medium 777-Botnet),(Citation: Microsoft Storm-0940),(Citation: TP-Link Quad 7 AUG 2025),(Citation: Sekoia 7777 Botnet JUL 2024),(Citation: Bitsight 7777 Botnet),</t>
   </si>
   <si>
     <t>(Citation: Recorded Future RedDelta 2025),(Citation: Recorded Future RedDelta 2025),(Citation: Recorded Future RedDelta 2025)</t>
   </si>
   <si>
-    <t>(Citation: Mandiant UNC3886 Juniper Routers MAR 2025),(Citation: Censys RedPenguin MAR 2025),(Citation: Mandiant UNC3886 Juniper Routers MAR 2025),(Citation: Juniper RedPenguin MAR 2025),(Citation: Mandiant UNC3886 Juniper Routers MAR 2025)</t>
-  </si>
-  <si>
-    <t>,(Citation: ORB Mandiant),(Citation: NSA APT5 Citrix Threat Hunting December 2022),(Citation: ORB Mandiant)</t>
+    <t>(Citation: Mandiant UNC3886 Juniper Routers MAR 2025),(Citation: Mandiant UNC3886 Juniper Routers MAR 2025),(Citation: Censys RedPenguin MAR 2025),(Citation: Juniper RedPenguin MAR 2025),(Citation: Mandiant UNC3886 Juniper Routers MAR 2025)</t>
+  </si>
+  <si>
+    <t>,(Citation: NSA APT5 Citrix Threat Hunting December 2022),(Citation: ORB Mandiant),(Citation: ORB Mandiant)</t>
   </si>
   <si>
     <t>(Citation: Google Salesforce JUN 2025),(Citation: Google Salesforce JUN 2025),(Citation: FBI Salesforce Data Theft SEP 2025),</t>
@@ -1635,13 +1635,13 @@
     <t>,(Citation: Oligo ShadowRay Campaign MAR 2024),</t>
   </si>
   <si>
-    <t>(Citation: Microsoft SharePoint Exploit JUL 2025),(Citation: Palo Alto SharePoint Vulnerabilities JUL 2025),(Citation: Eye Research ToolShell JUL 2025),(Citation: Microsoft SharePoint Exploit JUL 2025),(Citation: SentinelOne ToolShell JUL 2025),(Citation: Trend Micro SharePoint Attacks JUL 2025),(Citation: ESET ToolShell JUL 2025),</t>
-  </si>
-  <si>
-    <t>(Citation: Symantec Sunburst Sending Data January 2021),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: CrowdStrike StellarParticle January 2022),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: FireEye SUNBURST Additional Details Dec 2020),(Citation: Symantec RAINDROP January 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: CheckPoint Sunburst &amp; Teardrop December 2020),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: Microsoft - Customer Guidance on Recent Nation-State Cyber Attacks),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: FireEye SUNSHUTTLE Mar 2021),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Microsoft Internal Solorigate Investigation Blog),(Citation: MSTIC Nobelium Oct 2021),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Volexity SolarWinds),(Citation: Microsoft 365 Defender Solorigate),(Citation: Symantec RAINDROP January 2021),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: Secureworks IRON RITUAL Profile),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: UK NSCS Russia SolarWinds April 2021),(Citation: Mandiant UNC2452 APT29 April 2022),(Citation: NSA Joint Advisory SVR SolarWinds April 2021)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye TRITON 2018),(Citation: Triton-EENews-2017),(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018)</t>
+    <t>(Citation: Microsoft SharePoint Exploit JUL 2025),(Citation: Trend Micro SharePoint Attacks JUL 2025),(Citation: Palo Alto SharePoint Vulnerabilities JUL 2025),(Citation: Microsoft SharePoint Exploit JUL 2025),(Citation: Eye Research ToolShell JUL 2025),(Citation: SentinelOne ToolShell JUL 2025),(Citation: ESET ToolShell JUL 2025),</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint Sunburst &amp; Teardrop December 2020),(Citation: Symantec RAINDROP January 2021),(Citation: FireEye SUNBURST Additional Details Dec 2020),(Citation: Symantec Sunburst Sending Data January 2021),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: Symantec RAINDROP January 2021),(Citation: Secureworks IRON RITUAL Profile),(Citation: Microsoft Internal Solorigate Investigation Blog),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: Volexity SolarWinds),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: Microsoft - Customer Guidance on Recent Nation-State Cyber Attacks),(Citation: MSTIC Nobelium Oct 2021),(Citation: FireEye SUNSHUTTLE Mar 2021),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: UK NSCS Russia SolarWinds April 2021),(Citation: NSA Joint Advisory SVR SolarWinds April 2021),(Citation: Mandiant UNC2452 APT29 April 2022)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON 2018),(Citation: Triton-EENews-2017),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018)</t>
   </si>
   <si>
     <t>(Citation: Lumen Versa 2024),(Citation: Lumen Versa 2024),(Citation: Lumen Versa 2024)</t>
@@ -13944,16 +13944,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -13976,7 +13968,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -13984,35 +13976,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -14315,55 +14289,55 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -14380,7 +14354,7 @@
       <c r="D2" t="s">
         <v>163</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>215</v>
       </c>
       <c r="F2" t="s">
@@ -14424,7 +14398,7 @@
       <c r="D3" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>216</v>
       </c>
       <c r="F3" t="s">
@@ -14468,7 +14442,7 @@
       <c r="D4" t="s">
         <v>165</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>217</v>
       </c>
       <c r="F4" t="s">
@@ -14512,7 +14486,7 @@
       <c r="D5" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>218</v>
       </c>
       <c r="F5" t="s">
@@ -14559,7 +14533,7 @@
       <c r="D6" t="s">
         <v>167</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>219</v>
       </c>
       <c r="F6" t="s">
@@ -14603,7 +14577,7 @@
       <c r="D7" t="s">
         <v>168</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>220</v>
       </c>
       <c r="F7" t="s">
@@ -14647,7 +14621,7 @@
       <c r="D8" t="s">
         <v>169</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>221</v>
       </c>
       <c r="F8" t="s">
@@ -14694,7 +14668,7 @@
       <c r="D9" t="s">
         <v>170</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>222</v>
       </c>
       <c r="F9" t="s">
@@ -14738,7 +14712,7 @@
       <c r="D10" t="s">
         <v>171</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>223</v>
       </c>
       <c r="F10" t="s">
@@ -14782,7 +14756,7 @@
       <c r="D11" t="s">
         <v>172</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>224</v>
       </c>
       <c r="F11" t="s">
@@ -14829,7 +14803,7 @@
       <c r="D12" t="s">
         <v>173</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>225</v>
       </c>
       <c r="F12" t="s">
@@ -14876,7 +14850,7 @@
       <c r="D13" t="s">
         <v>174</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>226</v>
       </c>
       <c r="F13" t="s">
@@ -14923,7 +14897,7 @@
       <c r="D14" t="s">
         <v>175</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>227</v>
       </c>
       <c r="F14" t="s">
@@ -14967,7 +14941,7 @@
       <c r="D15" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>228</v>
       </c>
       <c r="F15" t="s">
@@ -15014,7 +14988,7 @@
       <c r="D16" t="s">
         <v>177</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>229</v>
       </c>
       <c r="F16" t="s">
@@ -15058,7 +15032,7 @@
       <c r="D17" t="s">
         <v>178</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>230</v>
       </c>
       <c r="F17" t="s">
@@ -15102,7 +15076,7 @@
       <c r="D18" t="s">
         <v>179</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>231</v>
       </c>
       <c r="F18" t="s">
@@ -15149,7 +15123,7 @@
       <c r="D19" t="s">
         <v>180</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>232</v>
       </c>
       <c r="F19" t="s">
@@ -15193,7 +15167,7 @@
       <c r="D20" t="s">
         <v>181</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>233</v>
       </c>
       <c r="F20" t="s">
@@ -15237,7 +15211,7 @@
       <c r="D21" t="s">
         <v>182</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>234</v>
       </c>
       <c r="F21" t="s">
@@ -15281,7 +15255,7 @@
       <c r="D22" t="s">
         <v>183</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>235</v>
       </c>
       <c r="F22" t="s">
@@ -15325,7 +15299,7 @@
       <c r="D23" t="s">
         <v>184</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F23" t="s">
@@ -15369,7 +15343,7 @@
       <c r="D24" t="s">
         <v>185</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>237</v>
       </c>
       <c r="F24" t="s">
@@ -15413,7 +15387,7 @@
       <c r="D25" t="s">
         <v>186</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="1" t="s">
         <v>238</v>
       </c>
       <c r="F25" t="s">
@@ -15460,7 +15434,7 @@
       <c r="D26" t="s">
         <v>187</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="1" t="s">
         <v>239</v>
       </c>
       <c r="F26" t="s">
@@ -15504,7 +15478,7 @@
       <c r="D27" t="s">
         <v>188</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="1" t="s">
         <v>240</v>
       </c>
       <c r="F27" t="s">
@@ -15548,7 +15522,7 @@
       <c r="D28" t="s">
         <v>189</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>241</v>
       </c>
       <c r="F28" t="s">
@@ -15592,7 +15566,7 @@
       <c r="D29" t="s">
         <v>190</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="1" t="s">
         <v>242</v>
       </c>
       <c r="F29" t="s">
@@ -15636,7 +15610,7 @@
       <c r="D30" t="s">
         <v>191</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F30" t="s">
@@ -15680,7 +15654,7 @@
       <c r="D31" t="s">
         <v>192</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="1" t="s">
         <v>244</v>
       </c>
       <c r="F31" t="s">
@@ -15724,7 +15698,7 @@
       <c r="D32" t="s">
         <v>193</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="1" t="s">
         <v>245</v>
       </c>
       <c r="F32" t="s">
@@ -15771,7 +15745,7 @@
       <c r="D33" t="s">
         <v>194</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="1" t="s">
         <v>246</v>
       </c>
       <c r="F33" t="s">
@@ -15821,7 +15795,7 @@
       <c r="D34" t="s">
         <v>195</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="1" t="s">
         <v>247</v>
       </c>
       <c r="F34" t="s">
@@ -15865,7 +15839,7 @@
       <c r="D35" t="s">
         <v>196</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="1" t="s">
         <v>248</v>
       </c>
       <c r="F35" t="s">
@@ -15909,7 +15883,7 @@
       <c r="D36" t="s">
         <v>197</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="1" t="s">
         <v>249</v>
       </c>
       <c r="F36" t="s">
@@ -15953,7 +15927,7 @@
       <c r="D37" t="s">
         <v>198</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="1" t="s">
         <v>250</v>
       </c>
       <c r="F37" t="s">
@@ -15997,7 +15971,7 @@
       <c r="D38" t="s">
         <v>199</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="1" t="s">
         <v>251</v>
       </c>
       <c r="F38" t="s">
@@ -16041,7 +16015,7 @@
       <c r="D39" t="s">
         <v>200</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="1" t="s">
         <v>252</v>
       </c>
       <c r="F39" t="s">
@@ -16085,7 +16059,7 @@
       <c r="D40" t="s">
         <v>201</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="1" t="s">
         <v>253</v>
       </c>
       <c r="F40" t="s">
@@ -16132,7 +16106,7 @@
       <c r="D41" t="s">
         <v>202</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="1" t="s">
         <v>254</v>
       </c>
       <c r="F41" t="s">
@@ -16176,7 +16150,7 @@
       <c r="D42" t="s">
         <v>203</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="1" t="s">
         <v>255</v>
       </c>
       <c r="F42" t="s">
@@ -16223,7 +16197,7 @@
       <c r="D43" t="s">
         <v>204</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="1" t="s">
         <v>256</v>
       </c>
       <c r="F43" t="s">
@@ -16267,7 +16241,7 @@
       <c r="D44" t="s">
         <v>205</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="1" t="s">
         <v>257</v>
       </c>
       <c r="F44" t="s">
@@ -16311,7 +16285,7 @@
       <c r="D45" t="s">
         <v>206</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="1" t="s">
         <v>258</v>
       </c>
       <c r="F45" t="s">
@@ -16355,7 +16329,7 @@
       <c r="D46" t="s">
         <v>207</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="1" t="s">
         <v>259</v>
       </c>
       <c r="F46" t="s">
@@ -16399,7 +16373,7 @@
       <c r="D47" t="s">
         <v>208</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="1" t="s">
         <v>260</v>
       </c>
       <c r="F47" t="s">
@@ -16443,7 +16417,7 @@
       <c r="D48" t="s">
         <v>209</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="1" t="s">
         <v>261</v>
       </c>
       <c r="F48" t="s">
@@ -16490,7 +16464,7 @@
       <c r="D49" t="s">
         <v>210</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="1" t="s">
         <v>262</v>
       </c>
       <c r="F49" t="s">
@@ -16537,7 +16511,7 @@
       <c r="D50" t="s">
         <v>211</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="1" t="s">
         <v>263</v>
       </c>
       <c r="F50" t="s">
@@ -16581,7 +16555,7 @@
       <c r="D51" t="s">
         <v>212</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="1" t="s">
         <v>264</v>
       </c>
       <c r="F51" t="s">
@@ -16625,7 +16599,7 @@
       <c r="D52" t="s">
         <v>213</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="1" t="s">
         <v>265</v>
       </c>
       <c r="F52" t="s">
@@ -16669,7 +16643,7 @@
       <c r="D53" t="s">
         <v>214</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F53" t="s">
@@ -16771,43 +16745,43 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>540</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>541</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>542</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>543</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>544</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>545</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>546</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>547</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>548</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>549</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -22934,43 +22908,43 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>540</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>541</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>542</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>543</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>544</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>545</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>546</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>547</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>548</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>549</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -64767,43 +64741,43 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>540</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>541</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>542</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>543</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>544</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>545</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>546</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>547</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>548</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>549</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -65846,13 +65820,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>4224</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>4225</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -65863,7 +65837,7 @@
       <c r="B2" t="s">
         <v>4360</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4494</v>
       </c>
     </row>
@@ -65874,7 +65848,7 @@
       <c r="B3" t="s">
         <v>4361</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>4495</v>
       </c>
     </row>
@@ -65885,7 +65859,7 @@
       <c r="B4" t="s">
         <v>4362</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>4496</v>
       </c>
     </row>
@@ -65896,7 +65870,7 @@
       <c r="B5" t="s">
         <v>4363</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>4497</v>
       </c>
     </row>
@@ -65907,7 +65881,7 @@
       <c r="B6" t="s">
         <v>4364</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>4498</v>
       </c>
     </row>
@@ -65918,7 +65892,7 @@
       <c r="B7" t="s">
         <v>4365</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>4499</v>
       </c>
     </row>
@@ -65929,7 +65903,7 @@
       <c r="B8" t="s">
         <v>4366</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>4500</v>
       </c>
     </row>
@@ -65940,7 +65914,7 @@
       <c r="B9" t="s">
         <v>4367</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>4501</v>
       </c>
     </row>
@@ -65951,7 +65925,7 @@
       <c r="B10" t="s">
         <v>4368</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>4502</v>
       </c>
     </row>
@@ -65962,7 +65936,7 @@
       <c r="B11" t="s">
         <v>4369</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>4503</v>
       </c>
     </row>
@@ -65973,7 +65947,7 @@
       <c r="B12" t="s">
         <v>4370</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>4504</v>
       </c>
     </row>
@@ -65984,7 +65958,7 @@
       <c r="B13" t="s">
         <v>4371</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>4505</v>
       </c>
     </row>
@@ -65995,7 +65969,7 @@
       <c r="B14" t="s">
         <v>4372</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>4506</v>
       </c>
     </row>
@@ -66006,7 +65980,7 @@
       <c r="B15" t="s">
         <v>4373</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>4507</v>
       </c>
     </row>
@@ -66017,7 +65991,7 @@
       <c r="B16" t="s">
         <v>4374</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>4508</v>
       </c>
     </row>
@@ -66028,7 +66002,7 @@
       <c r="B17" t="s">
         <v>4375</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>4509</v>
       </c>
     </row>
@@ -66039,7 +66013,7 @@
       <c r="B18" t="s">
         <v>4376</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>4510</v>
       </c>
     </row>
@@ -66050,7 +66024,7 @@
       <c r="B19" t="s">
         <v>4377</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>4511</v>
       </c>
     </row>
@@ -66061,7 +66035,7 @@
       <c r="B20" t="s">
         <v>4378</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>4512</v>
       </c>
     </row>
@@ -66072,7 +66046,7 @@
       <c r="B21" t="s">
         <v>4379</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>4513</v>
       </c>
     </row>
@@ -66083,7 +66057,7 @@
       <c r="B22" t="s">
         <v>4380</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>4514</v>
       </c>
     </row>
@@ -66094,7 +66068,7 @@
       <c r="B23" t="s">
         <v>4381</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>4515</v>
       </c>
     </row>
@@ -66105,7 +66079,7 @@
       <c r="B24" t="s">
         <v>4382</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>4516</v>
       </c>
     </row>
@@ -66116,7 +66090,7 @@
       <c r="B25" t="s">
         <v>4383</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>4517</v>
       </c>
     </row>
@@ -66127,7 +66101,7 @@
       <c r="B26" t="s">
         <v>4384</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>4518</v>
       </c>
     </row>
@@ -66138,7 +66112,7 @@
       <c r="B27" t="s">
         <v>4385</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>4519</v>
       </c>
     </row>
@@ -66149,7 +66123,7 @@
       <c r="B28" t="s">
         <v>4386</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>4520</v>
       </c>
     </row>
@@ -66160,7 +66134,7 @@
       <c r="B29" t="s">
         <v>4387</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>4521</v>
       </c>
     </row>
@@ -66171,7 +66145,7 @@
       <c r="B30" t="s">
         <v>4388</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>4522</v>
       </c>
     </row>
@@ -66182,7 +66156,7 @@
       <c r="B31" t="s">
         <v>4389</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>4523</v>
       </c>
     </row>
@@ -66193,7 +66167,7 @@
       <c r="B32" t="s">
         <v>4390</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>4524</v>
       </c>
     </row>
@@ -66204,7 +66178,7 @@
       <c r="B33" t="s">
         <v>4391</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>4525</v>
       </c>
     </row>
@@ -66215,7 +66189,7 @@
       <c r="B34" t="s">
         <v>4392</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>4526</v>
       </c>
     </row>
@@ -66226,7 +66200,7 @@
       <c r="B35" t="s">
         <v>4393</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>4527</v>
       </c>
     </row>
@@ -66237,7 +66211,7 @@
       <c r="B36" t="s">
         <v>4394</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>4528</v>
       </c>
     </row>
@@ -66248,7 +66222,7 @@
       <c r="B37" t="s">
         <v>4395</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>4529</v>
       </c>
     </row>
@@ -66259,7 +66233,7 @@
       <c r="B38" t="s">
         <v>4396</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>4530</v>
       </c>
     </row>
@@ -66270,7 +66244,7 @@
       <c r="B39" t="s">
         <v>4397</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>4531</v>
       </c>
     </row>
@@ -66281,7 +66255,7 @@
       <c r="B40" t="s">
         <v>4398</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>4532</v>
       </c>
     </row>
@@ -66292,7 +66266,7 @@
       <c r="B41" t="s">
         <v>4399</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>4533</v>
       </c>
     </row>
@@ -66303,7 +66277,7 @@
       <c r="B42" t="s">
         <v>4400</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>4534</v>
       </c>
     </row>
@@ -66314,7 +66288,7 @@
       <c r="B43" t="s">
         <v>4401</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>4535</v>
       </c>
     </row>
@@ -66325,7 +66299,7 @@
       <c r="B44" t="s">
         <v>4402</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>4536</v>
       </c>
     </row>
@@ -66336,7 +66310,7 @@
       <c r="B45" t="s">
         <v>4403</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>4537</v>
       </c>
     </row>
@@ -66347,7 +66321,7 @@
       <c r="B46" t="s">
         <v>4404</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>4538</v>
       </c>
     </row>
@@ -66358,7 +66332,7 @@
       <c r="B47" t="s">
         <v>4405</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>4539</v>
       </c>
     </row>
@@ -66369,7 +66343,7 @@
       <c r="B48" t="s">
         <v>4406</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>4540</v>
       </c>
     </row>
@@ -66380,7 +66354,7 @@
       <c r="B49" t="s">
         <v>4407</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>4541</v>
       </c>
     </row>
@@ -66391,7 +66365,7 @@
       <c r="B50" t="s">
         <v>4408</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>4542</v>
       </c>
     </row>
@@ -66402,7 +66376,7 @@
       <c r="B51" t="s">
         <v>4409</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>4543</v>
       </c>
     </row>
@@ -66413,7 +66387,7 @@
       <c r="B52" t="s">
         <v>4410</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>4544</v>
       </c>
     </row>
@@ -66424,7 +66398,7 @@
       <c r="B53" t="s">
         <v>4411</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>4545</v>
       </c>
     </row>
@@ -66435,7 +66409,7 @@
       <c r="B54" t="s">
         <v>4412</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>4546</v>
       </c>
     </row>
@@ -66446,7 +66420,7 @@
       <c r="B55" t="s">
         <v>4413</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>4547</v>
       </c>
     </row>
@@ -66457,7 +66431,7 @@
       <c r="B56" t="s">
         <v>4414</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="1" t="s">
         <v>4548</v>
       </c>
     </row>
@@ -66468,7 +66442,7 @@
       <c r="B57" t="s">
         <v>4415</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>4549</v>
       </c>
     </row>
@@ -66479,7 +66453,7 @@
       <c r="B58" t="s">
         <v>4416</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>4550</v>
       </c>
     </row>
@@ -66490,7 +66464,7 @@
       <c r="B59" t="s">
         <v>4417</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>4551</v>
       </c>
     </row>
@@ -66501,7 +66475,7 @@
       <c r="B60" t="s">
         <v>4418</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="1" t="s">
         <v>4552</v>
       </c>
     </row>
@@ -66512,7 +66486,7 @@
       <c r="B61" t="s">
         <v>4419</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>4553</v>
       </c>
     </row>
@@ -66523,7 +66497,7 @@
       <c r="B62" t="s">
         <v>4420</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>4554</v>
       </c>
     </row>
@@ -66534,7 +66508,7 @@
       <c r="B63" t="s">
         <v>4421</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>4555</v>
       </c>
     </row>
@@ -66545,7 +66519,7 @@
       <c r="B64" t="s">
         <v>4422</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>4556</v>
       </c>
     </row>
@@ -66556,7 +66530,7 @@
       <c r="B65" t="s">
         <v>4423</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>4557</v>
       </c>
     </row>
@@ -66567,7 +66541,7 @@
       <c r="B66" t="s">
         <v>4424</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>4558</v>
       </c>
     </row>
@@ -66578,7 +66552,7 @@
       <c r="B67" t="s">
         <v>4425</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="1" t="s">
         <v>4559</v>
       </c>
     </row>
@@ -66589,7 +66563,7 @@
       <c r="B68" t="s">
         <v>4426</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="1" t="s">
         <v>4560</v>
       </c>
     </row>
@@ -66600,7 +66574,7 @@
       <c r="B69" t="s">
         <v>4427</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>4561</v>
       </c>
     </row>
@@ -66611,7 +66585,7 @@
       <c r="B70" t="s">
         <v>4428</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="1" t="s">
         <v>4562</v>
       </c>
     </row>
@@ -66622,7 +66596,7 @@
       <c r="B71" t="s">
         <v>4429</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="1" t="s">
         <v>4563</v>
       </c>
     </row>
@@ -66633,7 +66607,7 @@
       <c r="B72" t="s">
         <v>4430</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="1" t="s">
         <v>4564</v>
       </c>
     </row>
@@ -66644,7 +66618,7 @@
       <c r="B73" t="s">
         <v>4431</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="1" t="s">
         <v>4565</v>
       </c>
     </row>
@@ -66655,7 +66629,7 @@
       <c r="B74" t="s">
         <v>4432</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="1" t="s">
         <v>4566</v>
       </c>
     </row>
@@ -66666,7 +66640,7 @@
       <c r="B75" t="s">
         <v>4433</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="1" t="s">
         <v>4567</v>
       </c>
     </row>
@@ -66677,7 +66651,7 @@
       <c r="B76" t="s">
         <v>4434</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="1" t="s">
         <v>4568</v>
       </c>
     </row>
@@ -66688,7 +66662,7 @@
       <c r="B77" t="s">
         <v>4435</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="1" t="s">
         <v>4569</v>
       </c>
     </row>
@@ -66699,7 +66673,7 @@
       <c r="B78" t="s">
         <v>4436</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="1" t="s">
         <v>4570</v>
       </c>
     </row>
@@ -66710,7 +66684,7 @@
       <c r="B79" t="s">
         <v>4437</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="1" t="s">
         <v>4571</v>
       </c>
     </row>
@@ -66721,7 +66695,7 @@
       <c r="B80" t="s">
         <v>4438</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="1" t="s">
         <v>4572</v>
       </c>
     </row>
@@ -66732,7 +66706,7 @@
       <c r="B81" t="s">
         <v>4439</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="1" t="s">
         <v>4573</v>
       </c>
     </row>
@@ -66743,7 +66717,7 @@
       <c r="B82" t="s">
         <v>4440</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>4574</v>
       </c>
     </row>
@@ -66754,7 +66728,7 @@
       <c r="B83" t="s">
         <v>4441</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="1" t="s">
         <v>4575</v>
       </c>
     </row>
@@ -66765,7 +66739,7 @@
       <c r="B84" t="s">
         <v>4442</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="1" t="s">
         <v>4576</v>
       </c>
     </row>
@@ -66776,7 +66750,7 @@
       <c r="B85" t="s">
         <v>4443</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="1" t="s">
         <v>4577</v>
       </c>
     </row>
@@ -66787,7 +66761,7 @@
       <c r="B86" t="s">
         <v>4444</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="1" t="s">
         <v>4578</v>
       </c>
     </row>
@@ -66798,7 +66772,7 @@
       <c r="B87" t="s">
         <v>4445</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="1" t="s">
         <v>4579</v>
       </c>
     </row>
@@ -66809,7 +66783,7 @@
       <c r="B88" t="s">
         <v>4446</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="1" t="s">
         <v>4580</v>
       </c>
     </row>
@@ -66820,7 +66794,7 @@
       <c r="B89" t="s">
         <v>4447</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="1" t="s">
         <v>4581</v>
       </c>
     </row>
@@ -66831,7 +66805,7 @@
       <c r="B90" t="s">
         <v>4448</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="1" t="s">
         <v>4582</v>
       </c>
     </row>
@@ -66842,7 +66816,7 @@
       <c r="B91" t="s">
         <v>4449</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="1" t="s">
         <v>4583</v>
       </c>
     </row>
@@ -66853,7 +66827,7 @@
       <c r="B92" t="s">
         <v>4450</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="1" t="s">
         <v>4584</v>
       </c>
     </row>
@@ -66864,7 +66838,7 @@
       <c r="B93" t="s">
         <v>4451</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="1" t="s">
         <v>4585</v>
       </c>
     </row>
@@ -66875,7 +66849,7 @@
       <c r="B94" t="s">
         <v>4452</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="1" t="s">
         <v>4586</v>
       </c>
     </row>
@@ -66886,7 +66860,7 @@
       <c r="B95" t="s">
         <v>4453</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="1" t="s">
         <v>4587</v>
       </c>
     </row>
@@ -66897,7 +66871,7 @@
       <c r="B96" t="s">
         <v>4454</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="1" t="s">
         <v>4588</v>
       </c>
     </row>
@@ -66908,7 +66882,7 @@
       <c r="B97" t="s">
         <v>4455</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="1" t="s">
         <v>4589</v>
       </c>
     </row>
@@ -66919,7 +66893,7 @@
       <c r="B98" t="s">
         <v>4456</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="1" t="s">
         <v>4590</v>
       </c>
     </row>
@@ -66930,7 +66904,7 @@
       <c r="B99" t="s">
         <v>4457</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="1" t="s">
         <v>4591</v>
       </c>
     </row>
@@ -66941,7 +66915,7 @@
       <c r="B100" t="s">
         <v>4458</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="1" t="s">
         <v>4592</v>
       </c>
     </row>
@@ -66952,7 +66926,7 @@
       <c r="B101" t="s">
         <v>4459</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="1" t="s">
         <v>4593</v>
       </c>
     </row>
@@ -66963,7 +66937,7 @@
       <c r="B102" t="s">
         <v>4460</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="1" t="s">
         <v>4594</v>
       </c>
     </row>
@@ -66974,7 +66948,7 @@
       <c r="B103" t="s">
         <v>4461</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="1" t="s">
         <v>4595</v>
       </c>
     </row>
@@ -66985,7 +66959,7 @@
       <c r="B104" t="s">
         <v>4462</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="1" t="s">
         <v>4596</v>
       </c>
     </row>
@@ -66996,7 +66970,7 @@
       <c r="B105" t="s">
         <v>4463</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="1" t="s">
         <v>4597</v>
       </c>
     </row>
@@ -67007,7 +66981,7 @@
       <c r="B106" t="s">
         <v>4464</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="1" t="s">
         <v>4598</v>
       </c>
     </row>
@@ -67018,7 +66992,7 @@
       <c r="B107" t="s">
         <v>4465</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="1" t="s">
         <v>4599</v>
       </c>
     </row>
@@ -67029,7 +67003,7 @@
       <c r="B108" t="s">
         <v>4466</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="1" t="s">
         <v>4600</v>
       </c>
     </row>
@@ -67040,7 +67014,7 @@
       <c r="B109" t="s">
         <v>4467</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="1" t="s">
         <v>4601</v>
       </c>
     </row>
@@ -67051,7 +67025,7 @@
       <c r="B110" t="s">
         <v>4468</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="1" t="s">
         <v>4602</v>
       </c>
     </row>
@@ -67062,7 +67036,7 @@
       <c r="B111" t="s">
         <v>4469</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="1" t="s">
         <v>4603</v>
       </c>
     </row>
@@ -67073,7 +67047,7 @@
       <c r="B112" t="s">
         <v>4470</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="1" t="s">
         <v>4604</v>
       </c>
     </row>
@@ -67084,7 +67058,7 @@
       <c r="B113" t="s">
         <v>4471</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="1" t="s">
         <v>4605</v>
       </c>
     </row>
@@ -67095,7 +67069,7 @@
       <c r="B114" t="s">
         <v>4472</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="1" t="s">
         <v>4606</v>
       </c>
     </row>
@@ -67106,7 +67080,7 @@
       <c r="B115" t="s">
         <v>4473</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="1" t="s">
         <v>4607</v>
       </c>
     </row>
@@ -67117,7 +67091,7 @@
       <c r="B116" t="s">
         <v>4474</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="1" t="s">
         <v>4608</v>
       </c>
     </row>
@@ -67128,7 +67102,7 @@
       <c r="B117" t="s">
         <v>4475</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="1" t="s">
         <v>4609</v>
       </c>
     </row>
@@ -67139,7 +67113,7 @@
       <c r="B118" t="s">
         <v>4476</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="1" t="s">
         <v>4610</v>
       </c>
     </row>
@@ -67150,7 +67124,7 @@
       <c r="B119" t="s">
         <v>4477</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="1" t="s">
         <v>4611</v>
       </c>
     </row>
@@ -67161,7 +67135,7 @@
       <c r="B120" t="s">
         <v>4478</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="1" t="s">
         <v>4612</v>
       </c>
     </row>
@@ -67172,7 +67146,7 @@
       <c r="B121" t="s">
         <v>4479</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="1" t="s">
         <v>4613</v>
       </c>
     </row>
@@ -67183,7 +67157,7 @@
       <c r="B122" t="s">
         <v>4480</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="1" t="s">
         <v>4614</v>
       </c>
     </row>
@@ -67194,7 +67168,7 @@
       <c r="B123" t="s">
         <v>4381</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="1" t="s">
         <v>4515</v>
       </c>
     </row>
@@ -67205,7 +67179,7 @@
       <c r="B124" t="s">
         <v>4409</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="1" t="s">
         <v>4543</v>
       </c>
     </row>
@@ -67216,7 +67190,7 @@
       <c r="B125" t="s">
         <v>4411</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="1" t="s">
         <v>4545</v>
       </c>
     </row>
@@ -67227,7 +67201,7 @@
       <c r="B126" t="s">
         <v>4481</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="1" t="s">
         <v>4615</v>
       </c>
     </row>
@@ -67238,7 +67212,7 @@
       <c r="B127" t="s">
         <v>4482</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="1" t="s">
         <v>4616</v>
       </c>
     </row>
@@ -67249,7 +67223,7 @@
       <c r="B128" t="s">
         <v>4362</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="1" t="s">
         <v>4496</v>
       </c>
     </row>
@@ -67260,7 +67234,7 @@
       <c r="B129" t="s">
         <v>4368</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="1" t="s">
         <v>4502</v>
       </c>
     </row>
@@ -67271,7 +67245,7 @@
       <c r="B130" t="s">
         <v>4374</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="1" t="s">
         <v>4508</v>
       </c>
     </row>
@@ -67282,7 +67256,7 @@
       <c r="B131" t="s">
         <v>4478</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="1" t="s">
         <v>4612</v>
       </c>
     </row>
@@ -67293,7 +67267,7 @@
       <c r="B132" t="s">
         <v>4380</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="1" t="s">
         <v>4514</v>
       </c>
     </row>
@@ -67304,7 +67278,7 @@
       <c r="B133" t="s">
         <v>4483</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="1" t="s">
         <v>4617</v>
       </c>
     </row>
@@ -67315,7 +67289,7 @@
       <c r="B134" t="s">
         <v>4403</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="1" t="s">
         <v>4537</v>
       </c>
     </row>
@@ -67326,7 +67300,7 @@
       <c r="B135" t="s">
         <v>4427</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="1" t="s">
         <v>4561</v>
       </c>
     </row>
@@ -67337,7 +67311,7 @@
       <c r="B136" t="s">
         <v>4484</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="1" t="s">
         <v>4618</v>
       </c>
     </row>
@@ -67348,7 +67322,7 @@
       <c r="B137" t="s">
         <v>4442</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="1" t="s">
         <v>4576</v>
       </c>
     </row>
@@ -67359,7 +67333,7 @@
       <c r="B138" t="s">
         <v>4440</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="1" t="s">
         <v>4574</v>
       </c>
     </row>
@@ -67370,7 +67344,7 @@
       <c r="B139" t="s">
         <v>4447</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="1" t="s">
         <v>4581</v>
       </c>
     </row>
@@ -67381,7 +67355,7 @@
       <c r="B140" t="s">
         <v>4485</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="1" t="s">
         <v>4619</v>
       </c>
     </row>
@@ -67392,7 +67366,7 @@
       <c r="B141" t="s">
         <v>4459</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="1" t="s">
         <v>4593</v>
       </c>
     </row>
@@ -67403,7 +67377,7 @@
       <c r="B142" t="s">
         <v>4471</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="1" t="s">
         <v>4605</v>
       </c>
     </row>
@@ -67414,7 +67388,7 @@
       <c r="B143" t="s">
         <v>4486</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="1" t="s">
         <v>4620</v>
       </c>
     </row>
@@ -67425,7 +67399,7 @@
       <c r="B144" t="s">
         <v>4429</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="1" t="s">
         <v>4563</v>
       </c>
     </row>
@@ -67436,7 +67410,7 @@
       <c r="B145" t="s">
         <v>4382</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="1" t="s">
         <v>4516</v>
       </c>
     </row>
@@ -67447,7 +67421,7 @@
       <c r="B146" t="s">
         <v>4395</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="1" t="s">
         <v>4529</v>
       </c>
     </row>
@@ -67458,7 +67432,7 @@
       <c r="B147" t="s">
         <v>4365</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="1" t="s">
         <v>4499</v>
       </c>
     </row>
@@ -67469,7 +67443,7 @@
       <c r="B148" t="s">
         <v>4431</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="1" t="s">
         <v>4565</v>
       </c>
     </row>
@@ -67480,7 +67454,7 @@
       <c r="B149" t="s">
         <v>4393</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="1" t="s">
         <v>4527</v>
       </c>
     </row>
@@ -67491,7 +67465,7 @@
       <c r="B150" t="s">
         <v>4388</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="1" t="s">
         <v>4522</v>
       </c>
     </row>
@@ -67502,7 +67476,7 @@
       <c r="B151" t="s">
         <v>4453</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="1" t="s">
         <v>4587</v>
       </c>
     </row>
@@ -67513,7 +67487,7 @@
       <c r="B152" t="s">
         <v>4367</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="1" t="s">
         <v>4501</v>
       </c>
     </row>
@@ -67524,7 +67498,7 @@
       <c r="B153" t="s">
         <v>4378</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="1" t="s">
         <v>4512</v>
       </c>
     </row>
@@ -67535,7 +67509,7 @@
       <c r="B154" t="s">
         <v>4375</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="1" t="s">
         <v>4509</v>
       </c>
     </row>
@@ -67546,7 +67520,7 @@
       <c r="B155" t="s">
         <v>4384</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="1" t="s">
         <v>4518</v>
       </c>
     </row>
@@ -67557,7 +67531,7 @@
       <c r="B156" t="s">
         <v>4433</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="1" t="s">
         <v>4567</v>
       </c>
     </row>
@@ -67568,7 +67542,7 @@
       <c r="B157" t="s">
         <v>4394</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="1" t="s">
         <v>4528</v>
       </c>
     </row>
@@ -67579,7 +67553,7 @@
       <c r="B158" t="s">
         <v>4432</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="1" t="s">
         <v>4566</v>
       </c>
     </row>
@@ -67590,7 +67564,7 @@
       <c r="B159" t="s">
         <v>4377</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="1" t="s">
         <v>4511</v>
       </c>
     </row>
@@ -67601,7 +67575,7 @@
       <c r="B160" t="s">
         <v>4465</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="1" t="s">
         <v>4599</v>
       </c>
     </row>
@@ -67612,7 +67586,7 @@
       <c r="B161" t="s">
         <v>4449</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="1" t="s">
         <v>4583</v>
       </c>
     </row>
@@ -67623,7 +67597,7 @@
       <c r="B162" t="s">
         <v>4385</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="1" t="s">
         <v>4519</v>
       </c>
     </row>
@@ -67634,7 +67608,7 @@
       <c r="B163" t="s">
         <v>4414</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="1" t="s">
         <v>4548</v>
       </c>
     </row>
@@ -67645,7 +67619,7 @@
       <c r="B164" t="s">
         <v>4428</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="1" t="s">
         <v>4562</v>
       </c>
     </row>
@@ -67656,7 +67630,7 @@
       <c r="B165" t="s">
         <v>4417</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" s="1" t="s">
         <v>4551</v>
       </c>
     </row>
@@ -67667,7 +67641,7 @@
       <c r="B166" t="s">
         <v>4401</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="1" t="s">
         <v>4535</v>
       </c>
     </row>
@@ -67678,7 +67652,7 @@
       <c r="B167" t="s">
         <v>4445</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="1" t="s">
         <v>4579</v>
       </c>
     </row>
@@ -67689,7 +67663,7 @@
       <c r="B168" t="s">
         <v>4463</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="1" t="s">
         <v>4597</v>
       </c>
     </row>
@@ -67700,7 +67674,7 @@
       <c r="B169" t="s">
         <v>4448</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="1" t="s">
         <v>4582</v>
       </c>
     </row>
@@ -67711,7 +67685,7 @@
       <c r="B170" t="s">
         <v>4434</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="1" t="s">
         <v>4568</v>
       </c>
     </row>
@@ -67722,7 +67696,7 @@
       <c r="B171" t="s">
         <v>4392</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="1" t="s">
         <v>4526</v>
       </c>
     </row>
@@ -67733,7 +67707,7 @@
       <c r="B172" t="s">
         <v>4454</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="1" t="s">
         <v>4588</v>
       </c>
     </row>
@@ -67744,7 +67718,7 @@
       <c r="B173" t="s">
         <v>4455</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="1" t="s">
         <v>4589</v>
       </c>
     </row>
@@ -67755,7 +67729,7 @@
       <c r="B174" t="s">
         <v>4370</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="1" t="s">
         <v>4504</v>
       </c>
     </row>
@@ -67766,7 +67740,7 @@
       <c r="B175" t="s">
         <v>4469</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" s="1" t="s">
         <v>4603</v>
       </c>
     </row>
@@ -67777,7 +67751,7 @@
       <c r="B176" t="s">
         <v>4450</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C176" s="1" t="s">
         <v>4584</v>
       </c>
     </row>
@@ -67788,7 +67762,7 @@
       <c r="B177" t="s">
         <v>4451</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="1" t="s">
         <v>4585</v>
       </c>
     </row>
@@ -67799,7 +67773,7 @@
       <c r="B178" t="s">
         <v>4479</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" s="1" t="s">
         <v>4613</v>
       </c>
     </row>
@@ -67810,7 +67784,7 @@
       <c r="B179" t="s">
         <v>4407</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C179" s="1" t="s">
         <v>4541</v>
       </c>
     </row>
@@ -67821,7 +67795,7 @@
       <c r="B180" t="s">
         <v>4364</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" s="1" t="s">
         <v>4498</v>
       </c>
     </row>
@@ -67832,7 +67806,7 @@
       <c r="B181" t="s">
         <v>4436</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" s="1" t="s">
         <v>4570</v>
       </c>
     </row>
@@ -67843,7 +67817,7 @@
       <c r="B182" t="s">
         <v>4444</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C182" s="1" t="s">
         <v>4578</v>
       </c>
     </row>
@@ -67854,7 +67828,7 @@
       <c r="B183" t="s">
         <v>4462</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" s="1" t="s">
         <v>4596</v>
       </c>
     </row>
@@ -67865,7 +67839,7 @@
       <c r="B184" t="s">
         <v>4369</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" s="1" t="s">
         <v>4503</v>
       </c>
     </row>
@@ -67876,7 +67850,7 @@
       <c r="B185" t="s">
         <v>4425</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="C185" s="1" t="s">
         <v>4559</v>
       </c>
     </row>
@@ -67887,7 +67861,7 @@
       <c r="B186" t="s">
         <v>4439</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C186" s="1" t="s">
         <v>4573</v>
       </c>
     </row>
@@ -67898,7 +67872,7 @@
       <c r="B187" t="s">
         <v>4400</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" s="1" t="s">
         <v>4534</v>
       </c>
     </row>
@@ -67909,7 +67883,7 @@
       <c r="B188" t="s">
         <v>4412</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" s="1" t="s">
         <v>4546</v>
       </c>
     </row>
@@ -67920,7 +67894,7 @@
       <c r="B189" t="s">
         <v>4468</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="1" t="s">
         <v>4602</v>
       </c>
     </row>
@@ -67931,7 +67905,7 @@
       <c r="B190" t="s">
         <v>4397</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" s="1" t="s">
         <v>4531</v>
       </c>
     </row>
@@ -67942,7 +67916,7 @@
       <c r="B191" t="s">
         <v>4399</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C191" s="1" t="s">
         <v>4533</v>
       </c>
     </row>
@@ -67953,7 +67927,7 @@
       <c r="B192" t="s">
         <v>4443</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" s="1" t="s">
         <v>4577</v>
       </c>
     </row>
@@ -67964,7 +67938,7 @@
       <c r="B193" t="s">
         <v>4452</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C193" s="1" t="s">
         <v>4586</v>
       </c>
     </row>
@@ -67975,7 +67949,7 @@
       <c r="B194" t="s">
         <v>4421</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C194" s="1" t="s">
         <v>4555</v>
       </c>
     </row>
@@ -67986,7 +67960,7 @@
       <c r="B195" t="s">
         <v>4396</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C195" s="1" t="s">
         <v>4530</v>
       </c>
     </row>
@@ -67997,7 +67971,7 @@
       <c r="B196" t="s">
         <v>4366</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" s="1" t="s">
         <v>4500</v>
       </c>
     </row>
@@ -68008,7 +67982,7 @@
       <c r="B197" t="s">
         <v>4466</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C197" s="1" t="s">
         <v>4600</v>
       </c>
     </row>
@@ -68019,7 +67993,7 @@
       <c r="B198" t="s">
         <v>4435</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C198" s="1" t="s">
         <v>4569</v>
       </c>
     </row>
@@ -68030,7 +68004,7 @@
       <c r="B199" t="s">
         <v>4476</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C199" s="1" t="s">
         <v>4610</v>
       </c>
     </row>
@@ -68041,7 +68015,7 @@
       <c r="B200" t="s">
         <v>4424</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C200" s="1" t="s">
         <v>4558</v>
       </c>
     </row>
@@ -68052,7 +68026,7 @@
       <c r="B201" t="s">
         <v>4423</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="C201" s="1" t="s">
         <v>4557</v>
       </c>
     </row>
@@ -68063,7 +68037,7 @@
       <c r="B202" t="s">
         <v>4422</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C202" s="1" t="s">
         <v>4556</v>
       </c>
     </row>
@@ -68074,7 +68048,7 @@
       <c r="B203" t="s">
         <v>4477</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C203" s="1" t="s">
         <v>4611</v>
       </c>
     </row>
@@ -68085,7 +68059,7 @@
       <c r="B204" t="s">
         <v>4391</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C204" s="1" t="s">
         <v>4525</v>
       </c>
     </row>
@@ -68096,7 +68070,7 @@
       <c r="B205" t="s">
         <v>4430</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="C205" s="1" t="s">
         <v>4564</v>
       </c>
     </row>
@@ -68107,7 +68081,7 @@
       <c r="B206" t="s">
         <v>4360</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="C206" s="1" t="s">
         <v>4494</v>
       </c>
     </row>
@@ -68118,7 +68092,7 @@
       <c r="B207" t="s">
         <v>4487</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C207" s="1" t="s">
         <v>4621</v>
       </c>
     </row>
@@ -68129,7 +68103,7 @@
       <c r="B208" t="s">
         <v>4488</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C208" s="1" t="s">
         <v>4622</v>
       </c>
     </row>
@@ -68140,7 +68114,7 @@
       <c r="B209" t="s">
         <v>4420</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="C209" s="1" t="s">
         <v>4554</v>
       </c>
     </row>
@@ -68151,7 +68125,7 @@
       <c r="B210" t="s">
         <v>4376</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C210" s="1" t="s">
         <v>4510</v>
       </c>
     </row>
@@ -68162,7 +68136,7 @@
       <c r="B211" t="s">
         <v>4415</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="C211" s="1" t="s">
         <v>4549</v>
       </c>
     </row>
@@ -68173,7 +68147,7 @@
       <c r="B212" t="s">
         <v>4470</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="C212" s="1" t="s">
         <v>4604</v>
       </c>
     </row>
@@ -68184,7 +68158,7 @@
       <c r="B213" t="s">
         <v>4489</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="C213" s="1" t="s">
         <v>4542</v>
       </c>
     </row>
@@ -68195,7 +68169,7 @@
       <c r="B214" t="s">
         <v>4406</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="C214" s="1" t="s">
         <v>4540</v>
       </c>
     </row>
@@ -68206,7 +68180,7 @@
       <c r="B215" t="s">
         <v>4389</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="C215" s="1" t="s">
         <v>4523</v>
       </c>
     </row>
@@ -68217,7 +68191,7 @@
       <c r="B216" t="s">
         <v>4490</v>
       </c>
-      <c r="C216" s="2" t="s">
+      <c r="C216" s="1" t="s">
         <v>4623</v>
       </c>
     </row>
@@ -68228,7 +68202,7 @@
       <c r="B217" t="s">
         <v>4416</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="C217" s="1" t="s">
         <v>4550</v>
       </c>
     </row>
@@ -68239,7 +68213,7 @@
       <c r="B218" t="s">
         <v>4491</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="C218" s="1" t="s">
         <v>4624</v>
       </c>
     </row>
@@ -68250,7 +68224,7 @@
       <c r="B219" t="s">
         <v>4426</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="C219" s="1" t="s">
         <v>4560</v>
       </c>
     </row>
@@ -68261,7 +68235,7 @@
       <c r="B220" t="s">
         <v>4398</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="C220" s="1" t="s">
         <v>4532</v>
       </c>
     </row>
@@ -68272,7 +68246,7 @@
       <c r="B221" t="s">
         <v>4480</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="C221" s="1" t="s">
         <v>4614</v>
       </c>
     </row>
@@ -68283,7 +68257,7 @@
       <c r="B222" t="s">
         <v>4492</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="C222" s="1" t="s">
         <v>4625</v>
       </c>
     </row>
@@ -68294,7 +68268,7 @@
       <c r="B223" t="s">
         <v>4493</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="C223" s="1" t="s">
         <v>4626</v>
       </c>
     </row>
